--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Herramienta para la Administración de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Herramienta para la Administración de Riesgos.xlsx
@@ -3071,6 +3071,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3079,9 +3082,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3998,12 +3998,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="165618816"/>
-        <c:axId val="165620352"/>
-        <c:axId val="156224128"/>
+        <c:axId val="77451648"/>
+        <c:axId val="77453184"/>
+        <c:axId val="62900864"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="165618816"/>
+        <c:axId val="77451648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4048,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165620352"/>
+        <c:crossAx val="77453184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4058,7 +4058,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165620352"/>
+        <c:axId val="77453184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,13 +4103,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165618816"/>
+        <c:crossAx val="77451648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="156224128"/>
+        <c:axId val="62900864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4154,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165620352"/>
+        <c:crossAx val="77453184"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6873,10 +6873,10 @@
       <c r="D15" s="197"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="238" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="238"/>
+      <c r="B16" s="239"/>
       <c r="C16" s="199"/>
       <c r="D16" s="199"/>
       <c r="E16" s="200"/>
@@ -6916,10 +6916,10 @@
       <c r="D21" s="197"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="238" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="238"/>
+      <c r="B22" s="239"/>
       <c r="C22" s="197"/>
       <c r="D22" s="197"/>
     </row>
@@ -6958,12 +6958,12 @@
       <c r="D27" s="197"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="238" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="238"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="239"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="196" t="s">
@@ -7879,8 +7879,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C629" sqref="C629"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F446" sqref="F446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7953,7 +7953,7 @@
       <c r="B4" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="240">
+      <c r="C4" s="237">
         <v>1.4</v>
       </c>
       <c r="D4" s="192"/>
@@ -9455,7 +9455,7 @@
       <c r="B82" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="240">
+      <c r="C82" s="237">
         <v>1.1000000000000001</v>
       </c>
       <c r="D82" s="192"/>
@@ -10884,7 +10884,7 @@
       <c r="B159" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C159" s="240">
+      <c r="C159" s="237">
         <v>2.11</v>
       </c>
       <c r="D159" s="192"/>
@@ -11369,7 +11369,7 @@
       <c r="B185" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C185" s="240">
+      <c r="C185" s="237">
         <v>1.6</v>
       </c>
       <c r="D185" s="192"/>
@@ -12351,7 +12351,7 @@
       <c r="B237" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C237" s="240">
+      <c r="C237" s="237">
         <v>1.4</v>
       </c>
       <c r="D237" s="192"/>
@@ -14828,7 +14828,7 @@
       <c r="B367" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C367" s="240">
+      <c r="C367" s="237">
         <v>1.1000000000000001</v>
       </c>
       <c r="D367" s="192"/>
